--- a/E6-CloudSecurity-Data.xlsx
+++ b/E6-CloudSecurity-Data.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="JV9ybNEVaqN53s94rFzxflOy7PcsCsfnOhj74SBM/ow="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pK0iQCMf8UWAth0t409dlvbMAiLt1ohHYHBJoAR90SU="/>
     </ext>
   </extLst>
 </workbook>
@@ -348,7 +348,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -382,9 +381,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
